--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_10.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_10.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>201358.2822003238</v>
+        <v>201805.9006259971</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12936495.09829997</v>
+        <v>12617883.90382514</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11255880.8018774</v>
+        <v>10943609.97017262</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6035132.993008068</v>
+        <v>6166230.738697069</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -710,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>7.537471181140626</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>259.3250421185132</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="Y2" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +755,10 @@
         <v>105.9202115588047</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -792,10 +794,10 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>54.89441676184293</v>
+        <v>159.6908732144031</v>
       </c>
       <c r="W3" t="n">
         <v>211.1008365810345</v>
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>37.84255357379602</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
         <v>271.1468876098733</v>
@@ -880,10 +882,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>99.44989698355123</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,7 +901,7 @@
         <v>390.1527797502169</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>343.646568403991</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -944,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>209.7183039501509</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -981,16 +983,16 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E6" t="n">
-        <v>119.2878878475953</v>
+        <v>18.64994027580487</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>3.88503363606453</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1038,7 +1040,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y6" t="n">
         <v>157.8079400398083</v>
@@ -1057,22 +1059,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>101.6816128081187</v>
       </c>
       <c r="X7" t="n">
-        <v>27.35334490128957</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1527797502169</v>
+        <v>385.4920101035037</v>
       </c>
       <c r="C8" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1148,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>258.1583233478934</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1215,22 +1217,22 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>96.11052717546339</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G9" t="n">
         <v>105.9202115588047</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>195.3773027531635</v>
+        <v>67.40434932510186</v>
       </c>
       <c r="V9" t="n">
         <v>211.5744117368965</v>
@@ -1275,7 +1277,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y9" t="n">
         <v>157.8079400398083</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>42.43741174507676</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
         <v>279.9701659793371</v>
@@ -1354,10 +1356,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>180.6077930059089</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.892231085415</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1430,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>390.1527797502169</v>
+        <v>343.6465684039911</v>
       </c>
     </row>
     <row r="12">
@@ -1452,22 +1454,22 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D12" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>119.2878878475953</v>
+        <v>27.46801669177194</v>
       </c>
       <c r="F12" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,16 +1499,16 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T12" t="n">
         <v>157.7484451748619</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V12" t="n">
-        <v>1.942428039541332</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W12" t="n">
         <v>211.1008365810345</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1591,10 +1593,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>27.35334490128957</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>165.4216953850582</v>
       </c>
     </row>
     <row r="14">
@@ -1604,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1622,10 +1624,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>57.7121190521751</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
+        <v>343.6465684039911</v>
+      </c>
+      <c r="Y14" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1692,19 +1694,19 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E15" t="n">
-        <v>119.2878878475953</v>
+        <v>18.64994027580487</v>
       </c>
       <c r="F15" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1737,13 +1739,13 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V15" t="n">
-        <v>159.6908732144031</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W15" t="n">
         <v>211.1008365810345</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>166.7165542762734</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
         <v>169.3824387139007</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1828,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>27.35334490128957</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1841,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>388.2474135039324</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>390.1527797502169</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1904,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>343.6465684039911</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1926,22 +1928,22 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D18" t="n">
-        <v>27.46801669177194</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>20.54110546596193</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>42.43741174507633</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2053,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>228.2601210751807</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>279.9701659793371</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2087,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
         <v>416.8201079258493</v>
@@ -2135,16 +2137,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>153.7876393318695</v>
+        <v>80.44800110537327</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2242,10 +2244,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>64.22285342541203</v>
       </c>
       <c r="F22" t="n">
         <v>162.9848146305146</v>
@@ -2293,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>186.29332117443</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>392.5647472501403</v>
       </c>
       <c r="C23" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>138.7145786832626</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2473,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>165.0943221801022</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
         <v>159.3017069803637</v>
@@ -2488,13 +2490,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2530,19 +2532,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>219.0719465112517</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2569,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>401.9511281772661</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2615,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>22.02843032108352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>132.0071667080474</v>
       </c>
       <c r="X28" t="n">
-        <v>27.35334490128912</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2795,13 +2797,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>37.55684337891687</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>404.6410012660961</v>
@@ -2810,7 +2812,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2846,16 +2848,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>332.8321264311872</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2883,7 +2885,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G30" t="n">
-        <v>105.9202115588047</v>
+        <v>105.9202115588044</v>
       </c>
       <c r="H30" t="n">
         <v>70.03974083464111</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2956,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.04409251361625</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,22 +3003,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>215.7942570968684</v>
       </c>
     </row>
     <row r="32">
@@ -3026,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3077,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>10.12090774188758</v>
       </c>
       <c r="X32" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>294.7228925766561</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -3156,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>106.9101097868346</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T33" t="n">
         <v>157.7484451748619</v>
@@ -3205,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>42.43741174507676</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>194.7591283093847</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
@@ -3253,7 +3255,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3266,19 +3268,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>14.02439290772386</v>
       </c>
       <c r="D35" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>46.09470047395167</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3329,10 +3331,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3365,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I36" t="n">
-        <v>20.54110546596236</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,13 +3426,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>76.06732461621729</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
         <v>162.9848146305146</v>
@@ -3469,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>165.4216953850584</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>3.497613144310399</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>172.5803280375313</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3554,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3566,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -3594,7 +3596,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G39" t="n">
-        <v>105.9202115588048</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H39" t="n">
         <v>70.03974083464111</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>53.92978098120648</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>101.6816128081183</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>279.9701659793371</v>
@@ -3746,19 +3748,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>4.879956658076844</v>
       </c>
       <c r="F41" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>37.42242240268658</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -3876,10 +3878,10 @@
         <v>195.3773027531635</v>
       </c>
       <c r="V42" t="n">
-        <v>211.5744117368968</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W42" t="n">
-        <v>211.1008365810345</v>
+        <v>211.1008365810342</v>
       </c>
       <c r="X42" t="n">
         <v>174.5627220424961</v>
@@ -3898,10 +3900,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>147.3406373693918</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
@@ -3916,7 +3918,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>114.0911530820974</v>
       </c>
       <c r="T43" t="n">
         <v>237.1532516330649</v>
@@ -3955,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3964,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>390.1527797502169</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,10 +4030,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>171.5100489325637</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4040,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>11.89439304893054</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -4071,7 +4073,7 @@
         <v>105.9202115588047</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I45" t="n">
         <v>20.54110546596223</v>
@@ -4104,16 +4106,16 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U45" t="n">
         <v>195.3773027531635</v>
       </c>
       <c r="V45" t="n">
-        <v>34.35331129588053</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W45" t="n">
         <v>211.1008365810345</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
@@ -4147,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>153.0251390105127</v>
       </c>
       <c r="V46" t="n">
-        <v>129.7793565050689</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4328,25 +4330,25 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J2" t="n">
-        <v>31.21222238001735</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="K2" t="n">
-        <v>31.21222238001735</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="L2" t="n">
-        <v>31.21222238001735</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="M2" t="n">
-        <v>361.3007174531585</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="N2" t="n">
-        <v>747.5519694058733</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="O2" t="n">
-        <v>1133.803221358588</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="P2" t="n">
-        <v>1520.054473311303</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="Q2" t="n">
         <v>1520.054473311303</v>
@@ -4358,13 +4360,13 @@
         <v>1560.611119000868</v>
       </c>
       <c r="T2" t="n">
-        <v>1552.99751174719</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="U2" t="n">
-        <v>1552.99751174719</v>
+        <v>1081.344143207237</v>
       </c>
       <c r="V2" t="n">
-        <v>1203.159957083671</v>
+        <v>819.3996562188394</v>
       </c>
       <c r="W2" t="n">
         <v>819.3996562188394</v>
@@ -4373,7 +4375,7 @@
         <v>425.3059392994284</v>
       </c>
       <c r="Y2" t="n">
-        <v>31.21222238001735</v>
+        <v>425.3059392994284</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>618.5472599225079</v>
+        <v>710.0430642665517</v>
       </c>
       <c r="C3" t="n">
-        <v>484.5521886714537</v>
+        <v>576.0479930154975</v>
       </c>
       <c r="D3" t="n">
-        <v>367.6550308908461</v>
+        <v>459.1508352348899</v>
       </c>
       <c r="E3" t="n">
-        <v>247.1622148831741</v>
+        <v>338.6580192272179</v>
       </c>
       <c r="F3" t="n">
-        <v>138.2023350656787</v>
+        <v>229.6981394097224</v>
       </c>
       <c r="G3" t="n">
-        <v>31.21222238001735</v>
+        <v>122.7080267240611</v>
       </c>
       <c r="H3" t="n">
-        <v>31.21222238001735</v>
+        <v>51.96081375977718</v>
       </c>
       <c r="I3" t="n">
         <v>31.21222238001735</v>
@@ -4410,16 +4412,16 @@
         <v>224.0250799426506</v>
       </c>
       <c r="K3" t="n">
+        <v>224.0250799426506</v>
+      </c>
+      <c r="L3" t="n">
+        <v>224.0250799426506</v>
+      </c>
+      <c r="M3" t="n">
         <v>372.2978437800934</v>
       </c>
-      <c r="L3" t="n">
-        <v>372.2978437800934</v>
-      </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>758.5490957328082</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1144.800347685523</v>
       </c>
       <c r="O3" t="n">
         <v>1144.800347685523</v>
@@ -4440,19 +4442,19 @@
         <v>1560.611119000868</v>
       </c>
       <c r="U3" t="n">
-        <v>1363.260308139086</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="V3" t="n">
-        <v>1307.811402319043</v>
+        <v>1399.307206663087</v>
       </c>
       <c r="W3" t="n">
-        <v>1094.578234055372</v>
+        <v>1186.074038399415</v>
       </c>
       <c r="X3" t="n">
-        <v>918.2522521942645</v>
+        <v>1009.748056538308</v>
       </c>
       <c r="Y3" t="n">
-        <v>758.8502925580946</v>
+        <v>850.3460969021384</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>356.8764423036677</v>
+        <v>198.4626134544738</v>
       </c>
       <c r="C4" t="n">
-        <v>185.7830698653842</v>
+        <v>198.4626134544738</v>
       </c>
       <c r="D4" t="n">
-        <v>185.7830698653842</v>
+        <v>198.4626134544738</v>
       </c>
       <c r="E4" t="n">
-        <v>185.7830698653842</v>
+        <v>198.4626134544738</v>
       </c>
       <c r="F4" t="n">
-        <v>185.7830698653842</v>
+        <v>198.4626134544738</v>
       </c>
       <c r="G4" t="n">
-        <v>185.7830698653842</v>
+        <v>31.21222238001724</v>
       </c>
       <c r="H4" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001724</v>
       </c>
       <c r="I4" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001724</v>
       </c>
       <c r="J4" t="n">
-        <v>45.29477178522787</v>
+        <v>45.29477178522779</v>
       </c>
       <c r="K4" t="n">
-        <v>199.8470995074659</v>
+        <v>199.8470995074658</v>
       </c>
       <c r="L4" t="n">
-        <v>459.7441997875267</v>
+        <v>459.7441997875263</v>
       </c>
       <c r="M4" t="n">
-        <v>749.0082562280199</v>
+        <v>749.0082562280196</v>
       </c>
       <c r="N4" t="n">
         <v>1029.84703862227</v>
@@ -4513,25 +4515,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S4" t="n">
-        <v>1560.611119000868</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="T4" t="n">
-        <v>1560.611119000868</v>
+        <v>1134.67061185748</v>
       </c>
       <c r="U4" t="n">
-        <v>1560.611119000868</v>
+        <v>851.872464403604</v>
       </c>
       <c r="V4" t="n">
-        <v>1286.72537394039</v>
+        <v>577.986719343126</v>
       </c>
       <c r="W4" t="n">
-        <v>1007.655709449264</v>
+        <v>298.9170548520003</v>
       </c>
       <c r="X4" t="n">
-        <v>769.3118473089473</v>
+        <v>198.4626134544738</v>
       </c>
       <c r="Y4" t="n">
-        <v>544.576148697712</v>
+        <v>198.4626134544738</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>425.3059392994284</v>
+        <v>772.4236851620456</v>
       </c>
       <c r="C5" t="n">
-        <v>31.21222238001735</v>
+        <v>378.3299682426345</v>
       </c>
       <c r="D5" t="n">
         <v>31.21222238001735</v>
@@ -4568,16 +4570,16 @@
         <v>285.3976938477716</v>
       </c>
       <c r="K5" t="n">
+        <v>285.3976938477716</v>
+      </c>
+      <c r="L5" t="n">
         <v>671.6489458004863</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>1057.900197753201</v>
       </c>
-      <c r="M5" t="n">
-        <v>1133.803221358588</v>
-      </c>
       <c r="N5" t="n">
-        <v>1520.054473311303</v>
+        <v>1444.151449705916</v>
       </c>
       <c r="O5" t="n">
         <v>1520.054473311303</v>
@@ -4592,25 +4594,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S5" t="n">
-        <v>1425.330043794968</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T5" t="n">
-        <v>1213.49337313825</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U5" t="n">
-        <v>1213.49337313825</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="V5" t="n">
-        <v>1213.49337313825</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="W5" t="n">
-        <v>1213.49337313825</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="X5" t="n">
-        <v>819.3996562188394</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Y5" t="n">
-        <v>819.3996562188394</v>
+        <v>1166.517402081457</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>477.2687567837004</v>
+        <v>300.9427749225932</v>
       </c>
       <c r="C6" t="n">
-        <v>343.2736855326461</v>
+        <v>166.9477036715389</v>
       </c>
       <c r="D6" t="n">
-        <v>226.3765277520385</v>
+        <v>50.05054589093136</v>
       </c>
       <c r="E6" t="n">
-        <v>105.8837117443665</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F6" t="n">
-        <v>105.8837117443665</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G6" t="n">
-        <v>101.9594353443013</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H6" t="n">
         <v>31.21222238001735</v>
@@ -4650,22 +4652,22 @@
         <v>610.2763318953653</v>
       </c>
       <c r="L6" t="n">
-        <v>758.5490957328082</v>
+        <v>996.52758384808</v>
       </c>
       <c r="M6" t="n">
-        <v>758.5490957328082</v>
+        <v>1210.766654316884</v>
       </c>
       <c r="N6" t="n">
-        <v>1144.800347685523</v>
+        <v>1210.766654316884</v>
       </c>
       <c r="O6" t="n">
-        <v>1531.051599638238</v>
+        <v>1210.766654316884</v>
       </c>
       <c r="P6" t="n">
-        <v>1531.051599638238</v>
+        <v>1210.766654316884</v>
       </c>
       <c r="Q6" t="n">
-        <v>1531.051599638238</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R6" t="n">
         <v>1560.611119000868</v>
@@ -4686,10 +4688,10 @@
         <v>776.973749055457</v>
       </c>
       <c r="X6" t="n">
-        <v>776.973749055457</v>
+        <v>600.6477671943499</v>
       </c>
       <c r="Y6" t="n">
-        <v>617.571789419287</v>
+        <v>441.2458075581799</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1120.546072681154</v>
+        <v>202.3055948183008</v>
       </c>
       <c r="C7" t="n">
-        <v>949.4527002428704</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="D7" t="n">
-        <v>789.9580555657803</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E7" t="n">
-        <v>629.0472404340999</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F7" t="n">
-        <v>464.4161145446911</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G7" t="n">
-        <v>297.1657234702345</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H7" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I7" t="n">
         <v>31.21222238001735</v>
@@ -4747,28 +4749,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R7" t="n">
-        <v>1560.611119000868</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="S7" t="n">
-        <v>1560.611119000868</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="T7" t="n">
-        <v>1560.611119000868</v>
+        <v>1049.39789353288</v>
       </c>
       <c r="U7" t="n">
-        <v>1560.611119000868</v>
+        <v>766.5997460790038</v>
       </c>
       <c r="V7" t="n">
-        <v>1560.611119000868</v>
+        <v>492.7140010185257</v>
       </c>
       <c r="W7" t="n">
-        <v>1560.611119000868</v>
+        <v>390.0053012123452</v>
       </c>
       <c r="X7" t="n">
-        <v>1532.981477686434</v>
+        <v>390.0053012123452</v>
       </c>
       <c r="Y7" t="n">
-        <v>1308.245779075198</v>
+        <v>390.0053012123452</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>772.4236851620456</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="C8" t="n">
-        <v>378.3299682426345</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="D8" t="n">
-        <v>378.3299682426345</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="E8" t="n">
-        <v>378.3299682426345</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="F8" t="n">
-        <v>378.3299682426345</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="G8" t="n">
-        <v>378.3299682426345</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="H8" t="n">
-        <v>117.5639850629442</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I8" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J8" t="n">
-        <v>285.3976938477716</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="K8" t="n">
-        <v>285.3976938477716</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="L8" t="n">
-        <v>285.3976938477716</v>
+        <v>361.3007174531585</v>
       </c>
       <c r="M8" t="n">
-        <v>285.3976938477716</v>
+        <v>361.3007174531585</v>
       </c>
       <c r="N8" t="n">
-        <v>426.3909626105813</v>
+        <v>747.5519694058733</v>
       </c>
       <c r="O8" t="n">
-        <v>812.642214563296</v>
+        <v>1133.803221358588</v>
       </c>
       <c r="P8" t="n">
-        <v>1198.893466516011</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="Q8" t="n">
         <v>1520.054473311303</v>
@@ -4832,22 +4834,22 @@
         <v>1560.611119000868</v>
       </c>
       <c r="T8" t="n">
-        <v>1560.611119000868</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="U8" t="n">
-        <v>1560.611119000868</v>
+        <v>1081.344143207237</v>
       </c>
       <c r="V8" t="n">
-        <v>1560.611119000868</v>
+        <v>731.5065885437173</v>
       </c>
       <c r="W8" t="n">
-        <v>1560.611119000868</v>
+        <v>731.5065885437173</v>
       </c>
       <c r="X8" t="n">
-        <v>1166.517402081457</v>
+        <v>731.5065885437173</v>
       </c>
       <c r="Y8" t="n">
-        <v>1166.517402081457</v>
+        <v>731.5065885437173</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>369.2787468980091</v>
+        <v>589.5502482588797</v>
       </c>
       <c r="C9" t="n">
-        <v>235.2836756469548</v>
+        <v>455.5551770078255</v>
       </c>
       <c r="D9" t="n">
-        <v>235.2836756469548</v>
+        <v>338.6580192272179</v>
       </c>
       <c r="E9" t="n">
-        <v>235.2836756469548</v>
+        <v>338.6580192272179</v>
       </c>
       <c r="F9" t="n">
-        <v>138.2023350656787</v>
+        <v>229.6981394097224</v>
       </c>
       <c r="G9" t="n">
-        <v>31.21222238001735</v>
+        <v>122.7080267240611</v>
       </c>
       <c r="H9" t="n">
-        <v>31.21222238001735</v>
+        <v>51.96081375977718</v>
       </c>
       <c r="I9" t="n">
         <v>31.21222238001735</v>
@@ -4887,13 +4889,13 @@
         <v>417.4634743327321</v>
       </c>
       <c r="L9" t="n">
-        <v>803.7147262854468</v>
+        <v>758.5490957328082</v>
       </c>
       <c r="M9" t="n">
-        <v>803.7147262854468</v>
+        <v>758.5490957328082</v>
       </c>
       <c r="N9" t="n">
-        <v>1144.800347685523</v>
+        <v>758.5490957328082</v>
       </c>
       <c r="O9" t="n">
         <v>1144.800347685523</v>
@@ -4908,25 +4910,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S9" t="n">
-        <v>1452.621109115176</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T9" t="n">
-        <v>1293.279245302185</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U9" t="n">
-        <v>1095.928434440403</v>
+        <v>1492.525917662381</v>
       </c>
       <c r="V9" t="n">
-        <v>882.216907433437</v>
+        <v>1278.814390655415</v>
       </c>
       <c r="W9" t="n">
-        <v>668.9837391697657</v>
+        <v>1065.581222391743</v>
       </c>
       <c r="X9" t="n">
-        <v>668.9837391697657</v>
+        <v>889.2552405306363</v>
       </c>
       <c r="Y9" t="n">
-        <v>509.5817795335957</v>
+        <v>729.8532808944664</v>
       </c>
     </row>
     <row r="10">
@@ -4984,28 +4986,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R10" t="n">
-        <v>1560.611119000868</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="S10" t="n">
-        <v>1560.611119000868</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="T10" t="n">
-        <v>1517.745046531093</v>
+        <v>1049.39789353288</v>
       </c>
       <c r="U10" t="n">
-        <v>1234.946899077217</v>
+        <v>766.5997460790038</v>
       </c>
       <c r="V10" t="n">
-        <v>961.0611540167392</v>
+        <v>492.7140010185257</v>
       </c>
       <c r="W10" t="n">
-        <v>681.9914895256136</v>
+        <v>213.6443365274001</v>
       </c>
       <c r="X10" t="n">
-        <v>443.647627385297</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.9119287740617</v>
+        <v>31.21222238001735</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>425.3059392994284</v>
+        <v>819.3996562188394</v>
       </c>
       <c r="C11" t="n">
         <v>425.3059392994284</v>
       </c>
       <c r="D11" t="n">
-        <v>425.3059392994284</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E11" t="n">
-        <v>425.3059392994284</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F11" t="n">
         <v>31.21222238001735</v>
@@ -5039,52 +5041,52 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J11" t="n">
-        <v>31.21222238001735</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="K11" t="n">
-        <v>401.8573631427234</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="L11" t="n">
-        <v>788.1086150954382</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="M11" t="n">
-        <v>1174.359867048153</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="N11" t="n">
-        <v>1560.611119000868</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="O11" t="n">
-        <v>1560.611119000868</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="P11" t="n">
-        <v>1560.611119000868</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="Q11" t="n">
-        <v>1560.611119000868</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="R11" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S11" t="n">
-        <v>1425.366441136812</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T11" t="n">
-        <v>1203.159957083671</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U11" t="n">
-        <v>1203.159957083671</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="V11" t="n">
-        <v>1203.159957083671</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="W11" t="n">
-        <v>819.3996562188394</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="X11" t="n">
-        <v>819.3996562188394</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Y11" t="n">
-        <v>425.3059392994284</v>
+        <v>1213.49337313825</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>710.0430642665517</v>
+        <v>192.9527650369019</v>
       </c>
       <c r="C12" t="n">
-        <v>576.0479930154975</v>
+        <v>58.9576937858476</v>
       </c>
       <c r="D12" t="n">
-        <v>459.1508352348899</v>
+        <v>58.9576937858476</v>
       </c>
       <c r="E12" t="n">
-        <v>338.6580192272179</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F12" t="n">
-        <v>229.6981394097224</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G12" t="n">
-        <v>122.7080267240611</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H12" t="n">
-        <v>51.96081375977718</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I12" t="n">
         <v>31.21222238001735</v>
@@ -5124,19 +5126,19 @@
         <v>31.21222238001735</v>
       </c>
       <c r="L12" t="n">
-        <v>31.21222238001735</v>
+        <v>417.4634743327321</v>
       </c>
       <c r="M12" t="n">
-        <v>417.4634743327321</v>
+        <v>803.7147262854468</v>
       </c>
       <c r="N12" t="n">
         <v>803.7147262854468</v>
       </c>
       <c r="O12" t="n">
-        <v>1189.965978238161</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="P12" t="n">
-        <v>1531.051599638238</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="Q12" t="n">
         <v>1531.051599638238</v>
@@ -5145,25 +5147,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S12" t="n">
-        <v>1560.611119000868</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="T12" t="n">
-        <v>1401.269255187876</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="U12" t="n">
-        <v>1401.269255187876</v>
+        <v>1095.928434440403</v>
       </c>
       <c r="V12" t="n">
-        <v>1399.307206663087</v>
+        <v>882.216907433437</v>
       </c>
       <c r="W12" t="n">
-        <v>1186.074038399415</v>
+        <v>668.9837391697657</v>
       </c>
       <c r="X12" t="n">
-        <v>1009.748056538308</v>
+        <v>492.6577573086585</v>
       </c>
       <c r="Y12" t="n">
-        <v>850.3460969021384</v>
+        <v>333.2557976724885</v>
       </c>
     </row>
     <row r="13">
@@ -5221,25 +5223,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R13" t="n">
-        <v>1560.611119000868</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="S13" t="n">
-        <v>1560.611119000868</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="T13" t="n">
-        <v>1560.611119000868</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="U13" t="n">
-        <v>1560.611119000868</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="V13" t="n">
-        <v>1560.611119000868</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="W13" t="n">
-        <v>1560.611119000868</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="X13" t="n">
-        <v>1532.981477686434</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="Y13" t="n">
         <v>1308.245779075198</v>
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>175.859054812616</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="C14" t="n">
-        <v>175.859054812616</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="D14" t="n">
-        <v>175.859054812616</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E14" t="n">
-        <v>175.859054812616</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F14" t="n">
-        <v>175.859054812616</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G14" t="n">
-        <v>175.859054812616</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H14" t="n">
-        <v>117.5639850629442</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I14" t="n">
         <v>31.21222238001735</v>
@@ -5279,22 +5281,22 @@
         <v>285.3976938477716</v>
       </c>
       <c r="K14" t="n">
-        <v>671.6489458004863</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="L14" t="n">
-        <v>671.6489458004863</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="M14" t="n">
-        <v>1057.900197753201</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="N14" t="n">
-        <v>1133.803221358588</v>
+        <v>426.3909626105813</v>
       </c>
       <c r="O14" t="n">
-        <v>1520.054473311303</v>
+        <v>812.642214563296</v>
       </c>
       <c r="P14" t="n">
-        <v>1520.054473311303</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="Q14" t="n">
         <v>1520.054473311303</v>
@@ -5309,19 +5311,19 @@
         <v>1560.611119000868</v>
       </c>
       <c r="U14" t="n">
-        <v>1303.550627260378</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="V14" t="n">
-        <v>953.7130725968584</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="W14" t="n">
-        <v>569.952771732027</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="X14" t="n">
-        <v>175.859054812616</v>
+        <v>1213.49337313825</v>
       </c>
       <c r="Y14" t="n">
-        <v>175.859054812616</v>
+        <v>819.3996562188394</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>710.0430642665517</v>
+        <v>300.9427749225932</v>
       </c>
       <c r="C15" t="n">
-        <v>576.0479930154975</v>
+        <v>166.9477036715389</v>
       </c>
       <c r="D15" t="n">
-        <v>459.1508352348899</v>
+        <v>50.05054589093136</v>
       </c>
       <c r="E15" t="n">
-        <v>338.6580192272179</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F15" t="n">
-        <v>229.6981394097224</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G15" t="n">
-        <v>122.7080267240611</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H15" t="n">
-        <v>51.96081375977718</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I15" t="n">
         <v>31.21222238001735</v>
@@ -5358,16 +5360,16 @@
         <v>31.21222238001735</v>
       </c>
       <c r="K15" t="n">
-        <v>31.21222238001735</v>
+        <v>408.7046310488249</v>
       </c>
       <c r="L15" t="n">
-        <v>31.21222238001735</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="M15" t="n">
-        <v>408.7046310488249</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="N15" t="n">
-        <v>794.9558830015396</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="O15" t="n">
         <v>1181.207134954254</v>
@@ -5385,22 +5387,22 @@
         <v>1560.611119000868</v>
       </c>
       <c r="T15" t="n">
-        <v>1560.611119000868</v>
+        <v>1401.269255187876</v>
       </c>
       <c r="U15" t="n">
-        <v>1560.611119000868</v>
+        <v>1203.918444326094</v>
       </c>
       <c r="V15" t="n">
-        <v>1399.307206663087</v>
+        <v>990.2069173191283</v>
       </c>
       <c r="W15" t="n">
-        <v>1186.074038399415</v>
+        <v>776.973749055457</v>
       </c>
       <c r="X15" t="n">
-        <v>1009.748056538308</v>
+        <v>600.6477671943499</v>
       </c>
       <c r="Y15" t="n">
-        <v>850.3460969021384</v>
+        <v>441.2458075581799</v>
       </c>
     </row>
     <row r="16">
@@ -5458,28 +5460,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R16" t="n">
-        <v>1475.338400676267</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S16" t="n">
-        <v>1288.946632556178</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T16" t="n">
-        <v>1288.946632556178</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U16" t="n">
-        <v>1288.946632556178</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="V16" t="n">
-        <v>1288.946632556178</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="W16" t="n">
-        <v>1288.946632556178</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="X16" t="n">
-        <v>1288.946632556178</v>
+        <v>1532.981477686434</v>
       </c>
       <c r="Y16" t="n">
-        <v>1288.946632556178</v>
+        <v>1308.245779075198</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>425.3059392994284</v>
+        <v>1678.033101815612</v>
       </c>
       <c r="C17" t="n">
-        <v>425.3059392994284</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="D17" t="n">
-        <v>425.3059392994284</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E17" t="n">
-        <v>425.3059392994284</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F17" t="n">
-        <v>425.3059392994284</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G17" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H17" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I17" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J17" t="n">
-        <v>31.21222238001735</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K17" t="n">
-        <v>361.3007174531585</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L17" t="n">
-        <v>747.5519694058733</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="M17" t="n">
-        <v>747.5519694058733</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N17" t="n">
-        <v>1133.803221358588</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="O17" t="n">
-        <v>1520.054473311303</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="P17" t="n">
-        <v>1520.054473311303</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q17" t="n">
-        <v>1520.054473311303</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R17" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S17" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T17" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U17" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V17" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W17" t="n">
-        <v>1213.49337313825</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X17" t="n">
-        <v>819.3996562188394</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y17" t="n">
-        <v>425.3059392994284</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>192.9527650369019</v>
+        <v>720.5959275161362</v>
       </c>
       <c r="C18" t="n">
-        <v>58.9576937858476</v>
+        <v>586.6008562650818</v>
       </c>
       <c r="D18" t="n">
-        <v>31.21222238001735</v>
+        <v>469.7036984844742</v>
       </c>
       <c r="E18" t="n">
-        <v>31.21222238001735</v>
+        <v>349.2108824768022</v>
       </c>
       <c r="F18" t="n">
-        <v>31.21222238001735</v>
+        <v>240.2510026593068</v>
       </c>
       <c r="G18" t="n">
-        <v>31.21222238001735</v>
+        <v>133.2608899736455</v>
       </c>
       <c r="H18" t="n">
-        <v>31.21222238001735</v>
+        <v>62.51367700936156</v>
       </c>
       <c r="I18" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J18" t="n">
-        <v>52.01289845874021</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K18" t="n">
-        <v>52.01289845874021</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L18" t="n">
-        <v>438.2641504114549</v>
+        <v>158.3214934345128</v>
       </c>
       <c r="M18" t="n">
-        <v>824.5154023641696</v>
+        <v>675.164428100838</v>
       </c>
       <c r="N18" t="n">
-        <v>824.5154023641696</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O18" t="n">
-        <v>824.5154023641696</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="P18" t="n">
-        <v>1210.766654316884</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q18" t="n">
-        <v>1560.611119000868</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R18" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S18" t="n">
-        <v>1452.621109115176</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T18" t="n">
-        <v>1293.279245302185</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U18" t="n">
-        <v>1095.928434440403</v>
+        <v>1623.571596919637</v>
       </c>
       <c r="V18" t="n">
-        <v>882.216907433437</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W18" t="n">
-        <v>668.9837391697657</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X18" t="n">
-        <v>492.6577573086585</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y18" t="n">
-        <v>333.2557976724885</v>
+        <v>860.8989601517228</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.21222238001735</v>
+        <v>84.63115809937611</v>
       </c>
       <c r="C19" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D19" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E19" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F19" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G19" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H19" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I19" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J19" t="n">
-        <v>45.29477178522787</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K19" t="n">
-        <v>199.8470995074659</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L19" t="n">
-        <v>459.7441997875264</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M19" t="n">
-        <v>749.0082562280197</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N19" t="n">
-        <v>1029.84703862227</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O19" t="n">
-        <v>1289.407648948744</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P19" t="n">
-        <v>1495.083089198357</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q19" t="n">
-        <v>1560.611119000868</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R19" t="n">
-        <v>1560.611119000868</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S19" t="n">
-        <v>1560.611119000868</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T19" t="n">
-        <v>1330.045340137049</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U19" t="n">
-        <v>1047.247192683173</v>
+        <v>1288.365834796576</v>
       </c>
       <c r="V19" t="n">
-        <v>773.3614476226949</v>
+        <v>1014.480089736098</v>
       </c>
       <c r="W19" t="n">
-        <v>494.2917831315693</v>
+        <v>735.4104252449724</v>
       </c>
       <c r="X19" t="n">
-        <v>255.9479209912527</v>
+        <v>497.0665631046558</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.21222238001735</v>
+        <v>272.3308644934205</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1182.432279155364</v>
+        <v>1596.772494638468</v>
       </c>
       <c r="C20" t="n">
-        <v>1182.432279155364</v>
+        <v>1596.772494638468</v>
       </c>
       <c r="D20" t="n">
-        <v>1182.432279155364</v>
+        <v>1596.772494638468</v>
       </c>
       <c r="E20" t="n">
         <v>1182.432279155364</v>
@@ -5744,34 +5746,34 @@
         <v>352.673583001884</v>
       </c>
       <c r="H20" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I20" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J20" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K20" t="n">
-        <v>558.6080202959273</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="L20" t="n">
-        <v>1075.450954962253</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="M20" t="n">
-        <v>1075.450954962253</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="N20" t="n">
-        <v>1075.450954962253</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="O20" t="n">
-        <v>1571.411346813777</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P20" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q20" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R20" t="n">
         <v>2088.254281480102</v>
@@ -5783,19 +5785,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U20" t="n">
-        <v>1932.913231649931</v>
+        <v>2006.993674302957</v>
       </c>
       <c r="V20" t="n">
-        <v>1583.075676986412</v>
+        <v>2006.993674302957</v>
       </c>
       <c r="W20" t="n">
-        <v>1583.075676986412</v>
+        <v>2006.993674302957</v>
       </c>
       <c r="X20" t="n">
-        <v>1182.432279155364</v>
+        <v>2006.993674302957</v>
       </c>
       <c r="Y20" t="n">
-        <v>1182.432279155364</v>
+        <v>2006.993674302957</v>
       </c>
     </row>
     <row r="21">
@@ -5805,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C21" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D21" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E21" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F21" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G21" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H21" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I21" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960204</v>
       </c>
       <c r="J21" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960204</v>
       </c>
       <c r="K21" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960204</v>
       </c>
       <c r="L21" t="n">
-        <v>158.3214934345131</v>
+        <v>508.1659581184963</v>
       </c>
       <c r="M21" t="n">
-        <v>675.1644281008383</v>
+        <v>1025.008892784821</v>
       </c>
       <c r="N21" t="n">
-        <v>675.1644281008383</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="O21" t="n">
-        <v>1192.007362767164</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="P21" t="n">
-        <v>1708.850297433489</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q21" t="n">
         <v>2058.694762117472</v>
@@ -5865,16 +5867,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V21" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W21" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X21" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y21" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="22">
@@ -5884,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>799.0947483607745</v>
+        <v>704.4716728002624</v>
       </c>
       <c r="C22" t="n">
-        <v>799.0947483607745</v>
+        <v>704.4716728002624</v>
       </c>
       <c r="D22" t="n">
-        <v>639.6001036836846</v>
+        <v>704.4716728002624</v>
       </c>
       <c r="E22" t="n">
         <v>639.6001036836846</v>
@@ -5899,19 +5901,19 @@
         <v>474.9689777942758</v>
       </c>
       <c r="G22" t="n">
-        <v>307.7185867198193</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H22" t="n">
         <v>158.1111315252759</v>
       </c>
       <c r="I22" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J22" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K22" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L22" t="n">
         <v>470.2970630371111</v>
@@ -5941,19 +5943,19 @@
         <v>1485.891263925851</v>
       </c>
       <c r="U22" t="n">
-        <v>1485.891263925851</v>
+        <v>1203.093116471976</v>
       </c>
       <c r="V22" t="n">
-        <v>1212.005518865373</v>
+        <v>929.2073714114977</v>
       </c>
       <c r="W22" t="n">
-        <v>1023.83044697201</v>
+        <v>929.2073714114977</v>
       </c>
       <c r="X22" t="n">
-        <v>1023.83044697201</v>
+        <v>929.2073714114977</v>
       </c>
       <c r="Y22" t="n">
-        <v>799.0947483607745</v>
+        <v>704.4716728002624</v>
       </c>
     </row>
     <row r="23">
@@ -5963,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>762.7981736886139</v>
+        <v>1691.724233752687</v>
       </c>
       <c r="C23" t="n">
-        <v>352.673583001884</v>
+        <v>1281.599643065957</v>
       </c>
       <c r="D23" t="n">
-        <v>352.673583001884</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="E23" t="n">
-        <v>352.673583001884</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F23" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G23" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H23" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I23" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J23" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K23" t="n">
-        <v>41.76508562960205</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="L23" t="n">
-        <v>558.6080202959273</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.011766457887</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N23" t="n">
-        <v>1014.011766457887</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="O23" t="n">
-        <v>1530.854701124212</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P23" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q23" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R23" t="n">
         <v>2088.254281480102</v>
@@ -6023,16 +6025,16 @@
         <v>2088.254281480102</v>
       </c>
       <c r="V23" t="n">
-        <v>1948.138545436403</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W23" t="n">
-        <v>1564.378244571571</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X23" t="n">
-        <v>1163.734846740524</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y23" t="n">
-        <v>762.7981736886139</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="24">
@@ -6042,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161363</v>
       </c>
       <c r="C24" t="n">
-        <v>586.6008562650821</v>
+        <v>586.600856265082</v>
       </c>
       <c r="D24" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844745</v>
       </c>
       <c r="E24" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768025</v>
       </c>
       <c r="F24" t="n">
         <v>240.2510026593071</v>
@@ -6060,31 +6062,31 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H24" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I24" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J24" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K24" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L24" t="n">
-        <v>537.7254774811266</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="M24" t="n">
-        <v>1054.568412147452</v>
+        <v>751.4208778585604</v>
       </c>
       <c r="N24" t="n">
-        <v>1571.411346813777</v>
+        <v>1268.263812524885</v>
       </c>
       <c r="O24" t="n">
-        <v>2088.254281480102</v>
+        <v>1785.106747191211</v>
       </c>
       <c r="P24" t="n">
-        <v>2088.254281480102</v>
+        <v>1785.106747191211</v>
       </c>
       <c r="Q24" t="n">
         <v>2088.254281480102</v>
@@ -6111,7 +6113,7 @@
         <v>1020.300919787893</v>
       </c>
       <c r="Y24" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517229</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>967.2728604114279</v>
+        <v>1214.985342995714</v>
       </c>
       <c r="C25" t="n">
-        <v>800.5109188153651</v>
+        <v>1043.891970557431</v>
       </c>
       <c r="D25" t="n">
-        <v>800.5109188153651</v>
+        <v>884.3973258803408</v>
       </c>
       <c r="E25" t="n">
-        <v>639.6001036836846</v>
+        <v>723.4865107486602</v>
       </c>
       <c r="F25" t="n">
-        <v>474.9689777942758</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="G25" t="n">
-        <v>307.7185867198193</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="H25" t="n">
-        <v>158.1111315252759</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="I25" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="J25" t="n">
-        <v>55.84763503481257</v>
+        <v>572.937934264462</v>
       </c>
       <c r="K25" t="n">
-        <v>210.3999627570506</v>
+        <v>727.4902619867</v>
       </c>
       <c r="L25" t="n">
-        <v>470.2970630371111</v>
+        <v>987.3873622667606</v>
       </c>
       <c r="M25" t="n">
-        <v>759.5611194776044</v>
+        <v>1276.651418707254</v>
       </c>
       <c r="N25" t="n">
-        <v>1040.399901871855</v>
+        <v>1557.490201101504</v>
       </c>
       <c r="O25" t="n">
-        <v>1299.960512198329</v>
+        <v>1817.050811427978</v>
       </c>
       <c r="P25" t="n">
-        <v>1505.635952447941</v>
+        <v>2022.726251677591</v>
       </c>
       <c r="Q25" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R25" t="n">
-        <v>1485.891263925851</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S25" t="n">
-        <v>1485.891263925851</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T25" t="n">
-        <v>1246.342524902554</v>
+        <v>1848.705542456804</v>
       </c>
       <c r="U25" t="n">
-        <v>1246.342524902554</v>
+        <v>1627.420748000994</v>
       </c>
       <c r="V25" t="n">
-        <v>1246.342524902554</v>
+        <v>1627.420748000994</v>
       </c>
       <c r="W25" t="n">
-        <v>967.2728604114279</v>
+        <v>1627.420748000994</v>
       </c>
       <c r="X25" t="n">
-        <v>967.2728604114279</v>
+        <v>1627.420748000994</v>
       </c>
       <c r="Y25" t="n">
-        <v>967.2728604114279</v>
+        <v>1402.685049389759</v>
       </c>
     </row>
     <row r="26">
@@ -6200,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1281.599643065957</v>
+        <v>1687.610883649054</v>
       </c>
       <c r="C26" t="n">
-        <v>1281.599643065957</v>
+        <v>1687.610883649054</v>
       </c>
       <c r="D26" t="n">
-        <v>877.1357131590178</v>
+        <v>1283.146953742115</v>
       </c>
       <c r="E26" t="n">
-        <v>462.7954976759145</v>
+        <v>868.8067382590116</v>
       </c>
       <c r="F26" t="n">
-        <v>41.76508562960205</v>
+        <v>447.7763262126991</v>
       </c>
       <c r="G26" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H26" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I26" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J26" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K26" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L26" t="n">
-        <v>537.7254774811266</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M26" t="n">
-        <v>537.7254774811266</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="N26" t="n">
-        <v>1054.568412147452</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="O26" t="n">
-        <v>1571.411346813777</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="P26" t="n">
-        <v>2088.254281480102</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q26" t="n">
         <v>2088.254281480102</v>
@@ -6263,13 +6265,13 @@
         <v>2088.254281480102</v>
       </c>
       <c r="W26" t="n">
-        <v>1704.493980615271</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X26" t="n">
-        <v>1303.850582784223</v>
+        <v>1687.610883649054</v>
       </c>
       <c r="Y26" t="n">
-        <v>1281.599643065957</v>
+        <v>1687.610883649054</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C27" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D27" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E27" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F27" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G27" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H27" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I27" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J27" t="n">
         <v>234.5779431922353</v>
@@ -6309,22 +6311,22 @@
         <v>690.384199457534</v>
       </c>
       <c r="L27" t="n">
-        <v>1192.007362767164</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M27" t="n">
-        <v>1192.007362767164</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="N27" t="n">
-        <v>1192.007362767164</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="O27" t="n">
-        <v>1192.007362767164</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="P27" t="n">
-        <v>1708.850297433489</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q27" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R27" t="n">
         <v>2088.254281480102</v>
@@ -6339,16 +6341,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V27" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W27" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X27" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y27" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1131.098935930739</v>
+        <v>887.0165910653886</v>
       </c>
       <c r="C28" t="n">
-        <v>960.0055634924552</v>
+        <v>887.0165910653886</v>
       </c>
       <c r="D28" t="n">
-        <v>800.5109188153651</v>
+        <v>887.0165910653886</v>
       </c>
       <c r="E28" t="n">
-        <v>639.6001036836846</v>
+        <v>726.1057759337081</v>
       </c>
       <c r="F28" t="n">
-        <v>474.9689777942758</v>
+        <v>726.1057759337081</v>
       </c>
       <c r="G28" t="n">
-        <v>307.7185867198193</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="H28" t="n">
-        <v>158.1111315252759</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="I28" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="J28" t="n">
-        <v>55.84763503481257</v>
+        <v>572.937934264462</v>
       </c>
       <c r="K28" t="n">
-        <v>210.3999627570506</v>
+        <v>727.4902619867</v>
       </c>
       <c r="L28" t="n">
-        <v>470.2970630371111</v>
+        <v>987.3873622667606</v>
       </c>
       <c r="M28" t="n">
-        <v>759.5611194776044</v>
+        <v>1276.651418707254</v>
       </c>
       <c r="N28" t="n">
-        <v>1040.399901871855</v>
+        <v>1557.490201101504</v>
       </c>
       <c r="O28" t="n">
-        <v>1299.960512198329</v>
+        <v>1817.050811427978</v>
       </c>
       <c r="P28" t="n">
-        <v>1505.635952447941</v>
+        <v>2022.726251677591</v>
       </c>
       <c r="Q28" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R28" t="n">
-        <v>1571.163982250452</v>
+        <v>2002.981563155501</v>
       </c>
       <c r="S28" t="n">
-        <v>1571.163982250452</v>
+        <v>1816.589795035411</v>
       </c>
       <c r="T28" t="n">
-        <v>1571.163982250452</v>
+        <v>1577.041056012114</v>
       </c>
       <c r="U28" t="n">
-        <v>1571.163982250452</v>
+        <v>1294.242908558238</v>
       </c>
       <c r="V28" t="n">
-        <v>1571.163982250452</v>
+        <v>1020.35716349776</v>
       </c>
       <c r="W28" t="n">
-        <v>1571.163982250452</v>
+        <v>887.0165910653886</v>
       </c>
       <c r="X28" t="n">
-        <v>1543.534340936018</v>
+        <v>887.0165910653886</v>
       </c>
       <c r="Y28" t="n">
-        <v>1318.798642324783</v>
+        <v>887.0165910653886</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1704.493980615271</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="C29" t="n">
-        <v>1704.493980615271</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="D29" t="n">
-        <v>1300.030050708331</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="E29" t="n">
-        <v>885.6898352252281</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="F29" t="n">
-        <v>847.7536297919787</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="G29" t="n">
-        <v>439.0253456848109</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H29" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I29" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J29" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K29" t="n">
-        <v>497.1688317915616</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L29" t="n">
-        <v>497.1688317915616</v>
+        <v>497.1688317915614</v>
       </c>
       <c r="M29" t="n">
         <v>1014.011766457887</v>
@@ -6494,19 +6496,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U29" t="n">
-        <v>2088.254281480102</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="V29" t="n">
-        <v>2088.254281480102</v>
+        <v>1481.356235076093</v>
       </c>
       <c r="W29" t="n">
-        <v>1704.493980615271</v>
+        <v>1097.595934211261</v>
       </c>
       <c r="X29" t="n">
-        <v>1704.493980615271</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="Y29" t="n">
-        <v>1704.493980615271</v>
+        <v>761.4018671090519</v>
       </c>
     </row>
     <row r="30">
@@ -6516,52 +6518,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161362</v>
       </c>
       <c r="C30" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650818</v>
       </c>
       <c r="D30" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844742</v>
       </c>
       <c r="E30" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768022</v>
       </c>
       <c r="F30" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593068</v>
       </c>
       <c r="G30" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H30" t="n">
-        <v>62.51367700936201</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I30" t="n">
-        <v>41.76508562960218</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J30" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K30" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L30" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M30" t="n">
-        <v>1014.414276561226</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N30" t="n">
-        <v>1531.257211227551</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O30" t="n">
-        <v>1531.257211227551</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="P30" t="n">
-        <v>1738.409816796119</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q30" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R30" t="n">
         <v>2088.254281480102</v>
@@ -6573,19 +6575,19 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U30" t="n">
-        <v>1623.571596919638</v>
+        <v>1623.571596919637</v>
       </c>
       <c r="V30" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W30" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X30" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y30" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517228</v>
       </c>
     </row>
     <row r="31">
@@ -6595,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>558.8443798601138</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C31" t="n">
-        <v>558.8443798601138</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D31" t="n">
-        <v>558.8443798601138</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E31" t="n">
-        <v>397.9335647284333</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F31" t="n">
-        <v>233.3024388390245</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G31" t="n">
-        <v>66.05204776456796</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H31" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I31" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J31" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K31" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L31" t="n">
         <v>470.2970630371111</v>
@@ -6649,22 +6651,22 @@
         <v>1299.499495805762</v>
       </c>
       <c r="T31" t="n">
-        <v>1299.499495805762</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U31" t="n">
-        <v>1299.499495805762</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V31" t="n">
-        <v>1025.613750745284</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="W31" t="n">
-        <v>746.5440862541582</v>
+        <v>498.0829448374625</v>
       </c>
       <c r="X31" t="n">
-        <v>746.5440862541582</v>
+        <v>259.7390826971459</v>
       </c>
       <c r="Y31" t="n">
-        <v>746.5440862541582</v>
+        <v>41.76508562960203</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>41.76508562960205</v>
+        <v>866.2298917994352</v>
       </c>
       <c r="C32" t="n">
-        <v>41.76508562960205</v>
+        <v>456.1053011127053</v>
       </c>
       <c r="D32" t="n">
-        <v>41.76508562960205</v>
+        <v>456.1053011127053</v>
       </c>
       <c r="E32" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F32" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G32" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H32" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I32" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J32" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K32" t="n">
-        <v>497.1688317915616</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L32" t="n">
-        <v>1014.011766457887</v>
+        <v>733.4074053521595</v>
       </c>
       <c r="M32" t="n">
-        <v>1530.854701124212</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="N32" t="n">
-        <v>2047.697635790537</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="O32" t="n">
-        <v>2047.697635790537</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="P32" t="n">
-        <v>2047.697635790537</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q32" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R32" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S32" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T32" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U32" t="n">
-        <v>1473.706230480572</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V32" t="n">
-        <v>1123.868675817053</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W32" t="n">
-        <v>740.1083749522213</v>
+        <v>2078.031142346882</v>
       </c>
       <c r="X32" t="n">
-        <v>339.4649771211738</v>
+        <v>1677.387744515835</v>
       </c>
       <c r="Y32" t="n">
-        <v>41.76508562960205</v>
+        <v>1276.451071463925</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6776,28 @@
         <v>62.51367700936187</v>
       </c>
       <c r="I33" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960204</v>
       </c>
       <c r="J33" t="n">
-        <v>52.35970185319792</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K33" t="n">
-        <v>508.1659581184966</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L33" t="n">
-        <v>1025.008892784822</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M33" t="n">
-        <v>1541.851827451147</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N33" t="n">
-        <v>1541.851827451147</v>
+        <v>690.384199457534</v>
       </c>
       <c r="O33" t="n">
-        <v>2058.694762117472</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P33" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q33" t="n">
         <v>2058.694762117472</v>
@@ -6832,46 +6834,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>558.8553848592519</v>
+        <v>675.2014307549252</v>
       </c>
       <c r="C34" t="n">
-        <v>558.8553848592519</v>
+        <v>675.2014307549252</v>
       </c>
       <c r="D34" t="n">
-        <v>558.8553848592519</v>
+        <v>675.2014307549252</v>
       </c>
       <c r="E34" t="n">
-        <v>558.8553848592519</v>
+        <v>675.2014307549252</v>
       </c>
       <c r="F34" t="n">
-        <v>558.8553848592519</v>
+        <v>675.2014307549252</v>
       </c>
       <c r="G34" t="n">
-        <v>558.8553848592519</v>
+        <v>675.2014307549252</v>
       </c>
       <c r="H34" t="n">
-        <v>558.8553848592519</v>
+        <v>675.2014307549252</v>
       </c>
       <c r="I34" t="n">
-        <v>558.8553848592519</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="J34" t="n">
-        <v>572.9379342644625</v>
+        <v>572.937934264462</v>
       </c>
       <c r="K34" t="n">
-        <v>727.4902619867005</v>
+        <v>727.4902619867</v>
       </c>
       <c r="L34" t="n">
-        <v>987.3873622667611</v>
+        <v>987.3873622667606</v>
       </c>
       <c r="M34" t="n">
         <v>1276.651418707254</v>
       </c>
       <c r="N34" t="n">
-        <v>1557.490201101505</v>
+        <v>1557.490201101504</v>
       </c>
       <c r="O34" t="n">
-        <v>1817.050811427979</v>
+        <v>1817.050811427978</v>
       </c>
       <c r="P34" t="n">
         <v>2022.726251677591</v>
@@ -6880,28 +6882,28 @@
         <v>2088.254281480102</v>
       </c>
       <c r="R34" t="n">
-        <v>2088.254281480102</v>
+        <v>2002.981563155501</v>
       </c>
       <c r="S34" t="n">
-        <v>2088.254281480102</v>
+        <v>1816.589795035411</v>
       </c>
       <c r="T34" t="n">
-        <v>2045.388209010328</v>
+        <v>1577.041056012114</v>
       </c>
       <c r="U34" t="n">
-        <v>1762.590061556452</v>
+        <v>1380.314663780412</v>
       </c>
       <c r="V34" t="n">
-        <v>1488.704316495974</v>
+        <v>1380.314663780412</v>
       </c>
       <c r="W34" t="n">
-        <v>1209.634652004848</v>
+        <v>1101.244999289286</v>
       </c>
       <c r="X34" t="n">
-        <v>971.2907898645316</v>
+        <v>862.9011371489696</v>
       </c>
       <c r="Y34" t="n">
-        <v>746.5550912532963</v>
+        <v>862.9011371489696</v>
       </c>
     </row>
     <row r="35">
@@ -6911,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>902.9139097323135</v>
+        <v>1704.49398061527</v>
       </c>
       <c r="C35" t="n">
-        <v>492.7893190455836</v>
+        <v>1690.327927173125</v>
       </c>
       <c r="D35" t="n">
-        <v>88.32538913864414</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E35" t="n">
-        <v>88.32538913864414</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F35" t="n">
-        <v>41.76508562960205</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G35" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H35" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I35" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J35" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K35" t="n">
-        <v>497.1688317915616</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L35" t="n">
-        <v>1014.011766457887</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="M35" t="n">
-        <v>1530.854701124212</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="N35" t="n">
-        <v>2047.697635790537</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="O35" t="n">
-        <v>2047.697635790537</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="P35" t="n">
-        <v>2047.697635790537</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q35" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R35" t="n">
         <v>2088.254281480102</v>
@@ -6974,13 +6976,13 @@
         <v>2088.254281480102</v>
       </c>
       <c r="W35" t="n">
-        <v>1704.493980615271</v>
+        <v>1704.49398061527</v>
       </c>
       <c r="X35" t="n">
-        <v>1303.850582784223</v>
+        <v>1704.49398061527</v>
       </c>
       <c r="Y35" t="n">
-        <v>902.9139097323135</v>
+        <v>1704.49398061527</v>
       </c>
     </row>
     <row r="36">
@@ -6990,52 +6992,52 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C36" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D36" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E36" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F36" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G36" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H36" t="n">
-        <v>62.51367700936201</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I36" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J36" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K36" t="n">
-        <v>497.5713418949007</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L36" t="n">
-        <v>1014.414276561226</v>
+        <v>751.4208778585604</v>
       </c>
       <c r="M36" t="n">
-        <v>1531.257211227551</v>
+        <v>1025.008892784821</v>
       </c>
       <c r="N36" t="n">
-        <v>2048.100145893876</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="O36" t="n">
-        <v>2048.100145893876</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="P36" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q36" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R36" t="n">
         <v>2088.254281480102</v>
@@ -7050,16 +7052,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V36" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W36" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X36" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y36" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="37">
@@ -7069,46 +7071,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1393.020729020947</v>
+        <v>1648.189235160388</v>
       </c>
       <c r="C37" t="n">
-        <v>1393.020729020947</v>
+        <v>1477.095862722104</v>
       </c>
       <c r="D37" t="n">
-        <v>1233.526084343857</v>
+        <v>1317.601218045014</v>
       </c>
       <c r="E37" t="n">
         <v>1156.690402913334</v>
       </c>
       <c r="F37" t="n">
-        <v>992.0592770239257</v>
+        <v>992.0592770239252</v>
       </c>
       <c r="G37" t="n">
-        <v>824.8088859494691</v>
+        <v>824.8088859494686</v>
       </c>
       <c r="H37" t="n">
-        <v>675.2014307549257</v>
+        <v>675.2014307549252</v>
       </c>
       <c r="I37" t="n">
-        <v>558.8553848592519</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="J37" t="n">
-        <v>572.9379342644625</v>
+        <v>572.937934264462</v>
       </c>
       <c r="K37" t="n">
-        <v>727.4902619867005</v>
+        <v>727.4902619867</v>
       </c>
       <c r="L37" t="n">
-        <v>987.3873622667611</v>
+        <v>987.3873622667606</v>
       </c>
       <c r="M37" t="n">
         <v>1276.651418707254</v>
       </c>
       <c r="N37" t="n">
-        <v>1557.490201101505</v>
+        <v>1557.490201101504</v>
       </c>
       <c r="O37" t="n">
-        <v>1817.050811427979</v>
+        <v>1817.050811427978</v>
       </c>
       <c r="P37" t="n">
         <v>2022.726251677591</v>
@@ -7117,28 +7119,28 @@
         <v>2088.254281480102</v>
       </c>
       <c r="R37" t="n">
-        <v>2088.254281480102</v>
+        <v>2002.981563155501</v>
       </c>
       <c r="S37" t="n">
-        <v>2088.254281480102</v>
+        <v>1835.888941554432</v>
       </c>
       <c r="T37" t="n">
-        <v>2088.254281480102</v>
+        <v>1835.888941554432</v>
       </c>
       <c r="U37" t="n">
-        <v>1805.456134026226</v>
+        <v>1835.888941554432</v>
       </c>
       <c r="V37" t="n">
-        <v>1805.456134026226</v>
+        <v>1835.888941554432</v>
       </c>
       <c r="W37" t="n">
-        <v>1805.456134026226</v>
+        <v>1835.888941554432</v>
       </c>
       <c r="X37" t="n">
-        <v>1805.456134026226</v>
+        <v>1835.888941554432</v>
       </c>
       <c r="Y37" t="n">
-        <v>1580.720435414991</v>
+        <v>1835.888941554432</v>
       </c>
     </row>
     <row r="38">
@@ -7148,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1866.047797426961</v>
+        <v>876.4530309326549</v>
       </c>
       <c r="C38" t="n">
-        <v>1455.923206740231</v>
+        <v>466.328440245925</v>
       </c>
       <c r="D38" t="n">
-        <v>1051.459276833292</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="E38" t="n">
-        <v>637.1190613501885</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F38" t="n">
-        <v>216.0886493038761</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G38" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H38" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I38" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J38" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K38" t="n">
-        <v>537.7254774811266</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L38" t="n">
-        <v>1054.568412147452</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M38" t="n">
-        <v>1054.568412147452</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N38" t="n">
-        <v>1571.411346813777</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="O38" t="n">
-        <v>2088.254281480102</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="P38" t="n">
-        <v>2088.254281480102</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q38" t="n">
         <v>2088.254281480102</v>
@@ -7202,22 +7204,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T38" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U38" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V38" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W38" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X38" t="n">
-        <v>1866.047797426961</v>
+        <v>1687.610883649054</v>
       </c>
       <c r="Y38" t="n">
-        <v>1866.047797426961</v>
+        <v>1286.674210597144</v>
       </c>
     </row>
     <row r="39">
@@ -7227,52 +7229,52 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C39" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D39" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E39" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F39" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G39" t="n">
         <v>133.2608899736458</v>
       </c>
       <c r="H39" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I39" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J39" t="n">
-        <v>234.5779431922353</v>
+        <v>187.8810127971428</v>
       </c>
       <c r="K39" t="n">
-        <v>234.5779431922353</v>
+        <v>187.8810127971428</v>
       </c>
       <c r="L39" t="n">
-        <v>234.5779431922353</v>
+        <v>704.723947463468</v>
       </c>
       <c r="M39" t="n">
-        <v>751.4208778585605</v>
+        <v>704.723947463468</v>
       </c>
       <c r="N39" t="n">
-        <v>751.4208778585605</v>
+        <v>704.723947463468</v>
       </c>
       <c r="O39" t="n">
-        <v>1192.007362767164</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="P39" t="n">
-        <v>1708.850297433489</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q39" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R39" t="n">
         <v>2088.254281480102</v>
@@ -7287,16 +7289,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V39" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W39" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X39" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y39" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="40">
@@ -7306,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>315.5671578740656</v>
+        <v>1014.480089736098</v>
       </c>
       <c r="C40" t="n">
-        <v>144.4737854357821</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D40" t="n">
-        <v>144.4737854357821</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E40" t="n">
-        <v>144.4737854357821</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F40" t="n">
-        <v>144.4737854357821</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G40" t="n">
-        <v>144.4737854357821</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H40" t="n">
-        <v>144.4737854357821</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I40" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J40" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K40" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L40" t="n">
         <v>470.2970630371111</v>
@@ -7354,28 +7356,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R40" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S40" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T40" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U40" t="n">
-        <v>777.1526093285881</v>
+        <v>1288.365834796576</v>
       </c>
       <c r="V40" t="n">
-        <v>503.2668642681101</v>
+        <v>1014.480089736098</v>
       </c>
       <c r="W40" t="n">
-        <v>503.2668642681101</v>
+        <v>1014.480089736098</v>
       </c>
       <c r="X40" t="n">
-        <v>503.2668642681101</v>
+        <v>1014.480089736098</v>
       </c>
       <c r="Y40" t="n">
-        <v>503.2668642681101</v>
+        <v>1014.480089736098</v>
       </c>
     </row>
     <row r="41">
@@ -7385,49 +7387,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>549.1472603588413</v>
+        <v>876.4530309326549</v>
       </c>
       <c r="C41" t="n">
-        <v>549.1472603588413</v>
+        <v>876.4530309326549</v>
       </c>
       <c r="D41" t="n">
-        <v>549.1472603588413</v>
+        <v>876.4530309326549</v>
       </c>
       <c r="E41" t="n">
-        <v>549.1472603588413</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F41" t="n">
-        <v>128.1168483125289</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G41" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H41" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I41" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J41" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K41" t="n">
-        <v>692.8507596625949</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="L41" t="n">
-        <v>692.8507596625949</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M41" t="n">
-        <v>1209.69369432892</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="N41" t="n">
-        <v>1209.69369432892</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="O41" t="n">
-        <v>1209.69369432892</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="P41" t="n">
-        <v>1726.536628995245</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q41" t="n">
         <v>2047.697635790537</v>
@@ -7436,25 +7438,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S41" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T41" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U41" t="n">
-        <v>1692.966295551681</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V41" t="n">
-        <v>1343.128740888162</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W41" t="n">
-        <v>959.3684400233308</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X41" t="n">
-        <v>959.3684400233308</v>
+        <v>1687.610883649054</v>
       </c>
       <c r="Y41" t="n">
-        <v>959.3684400233308</v>
+        <v>1286.674210597144</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7484,34 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H42" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I42" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J42" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K42" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L42" t="n">
-        <v>751.4208778585605</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M42" t="n">
-        <v>1268.263812524886</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="N42" t="n">
-        <v>1785.106747191211</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="O42" t="n">
-        <v>2058.694762117472</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P42" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q42" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R42" t="n">
         <v>2088.254281480102</v>
@@ -7521,7 +7523,7 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U42" t="n">
-        <v>1623.571596919638</v>
+        <v>1623.571596919637</v>
       </c>
       <c r="V42" t="n">
         <v>1409.860069912671</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>832.9937995554407</v>
+        <v>1648.189235160388</v>
       </c>
       <c r="C43" t="n">
-        <v>832.9937995554407</v>
+        <v>1477.095862722104</v>
       </c>
       <c r="D43" t="n">
-        <v>684.1648729196913</v>
+        <v>1317.601218045014</v>
       </c>
       <c r="E43" t="n">
-        <v>523.2540577880108</v>
+        <v>1156.690402913334</v>
       </c>
       <c r="F43" t="n">
-        <v>358.622931898602</v>
+        <v>992.0592770239252</v>
       </c>
       <c r="G43" t="n">
-        <v>191.3725408241454</v>
+        <v>824.8088859494686</v>
       </c>
       <c r="H43" t="n">
-        <v>41.76508562960205</v>
+        <v>675.2014307549252</v>
       </c>
       <c r="I43" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="J43" t="n">
-        <v>55.84763503481257</v>
+        <v>572.937934264462</v>
       </c>
       <c r="K43" t="n">
-        <v>210.3999627570506</v>
+        <v>727.4902619867</v>
       </c>
       <c r="L43" t="n">
-        <v>470.2970630371111</v>
+        <v>987.3873622667606</v>
       </c>
       <c r="M43" t="n">
-        <v>759.5611194776044</v>
+        <v>1276.651418707254</v>
       </c>
       <c r="N43" t="n">
-        <v>1040.399901871855</v>
+        <v>1557.490201101504</v>
       </c>
       <c r="O43" t="n">
-        <v>1299.960512198329</v>
+        <v>1817.050811427978</v>
       </c>
       <c r="P43" t="n">
-        <v>1505.635952447941</v>
+        <v>2022.726251677591</v>
       </c>
       <c r="Q43" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R43" t="n">
-        <v>1571.163982250452</v>
+        <v>2002.981563155501</v>
       </c>
       <c r="S43" t="n">
-        <v>1571.163982250452</v>
+        <v>1887.737974183686</v>
       </c>
       <c r="T43" t="n">
-        <v>1331.615243227154</v>
+        <v>1648.189235160388</v>
       </c>
       <c r="U43" t="n">
-        <v>1331.615243227154</v>
+        <v>1648.189235160388</v>
       </c>
       <c r="V43" t="n">
-        <v>1057.729498166676</v>
+        <v>1648.189235160388</v>
       </c>
       <c r="W43" t="n">
-        <v>1057.729498166676</v>
+        <v>1648.189235160388</v>
       </c>
       <c r="X43" t="n">
-        <v>1057.729498166676</v>
+        <v>1648.189235160388</v>
       </c>
       <c r="Y43" t="n">
-        <v>832.9937995554407</v>
+        <v>1648.189235160388</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1130.308153591121</v>
+        <v>1265.081890330439</v>
       </c>
       <c r="C44" t="n">
-        <v>1130.308153591121</v>
+        <v>854.9572996437093</v>
       </c>
       <c r="D44" t="n">
-        <v>1130.308153591121</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="E44" t="n">
-        <v>736.2144366717104</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="F44" t="n">
-        <v>736.2144366717104</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G44" t="n">
-        <v>342.1207197522994</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H44" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I44" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J44" t="n">
-        <v>31.21222238001735</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K44" t="n">
-        <v>361.3007174531585</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="L44" t="n">
-        <v>747.5519694058733</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="M44" t="n">
-        <v>1133.803221358588</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="N44" t="n">
-        <v>1520.054473311303</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="O44" t="n">
-        <v>1520.054473311303</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="P44" t="n">
-        <v>1520.054473311303</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q44" t="n">
-        <v>1520.054473311303</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R44" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S44" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T44" t="n">
-        <v>1387.368645331611</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U44" t="n">
-        <v>1130.308153591121</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V44" t="n">
-        <v>1130.308153591121</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W44" t="n">
-        <v>1130.308153591121</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X44" t="n">
-        <v>1130.308153591121</v>
+        <v>2076.239743046839</v>
       </c>
       <c r="Y44" t="n">
-        <v>1130.308153591121</v>
+        <v>1675.303069994929</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>639.2958513022677</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C45" t="n">
-        <v>505.3007800512135</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D45" t="n">
-        <v>388.4036222706059</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E45" t="n">
-        <v>267.9108062629339</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F45" t="n">
-        <v>158.9509264454385</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G45" t="n">
-        <v>51.96081375977718</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H45" t="n">
-        <v>51.96081375977718</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I45" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J45" t="n">
-        <v>224.0250799426506</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K45" t="n">
-        <v>610.2763318953653</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L45" t="n">
-        <v>610.2763318953653</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M45" t="n">
-        <v>610.2763318953653</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N45" t="n">
-        <v>610.2763318953653</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O45" t="n">
-        <v>794.9558830015396</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="P45" t="n">
-        <v>1181.207134954254</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q45" t="n">
-        <v>1531.051599638238</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R45" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S45" t="n">
-        <v>1560.611119000868</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T45" t="n">
-        <v>1560.611119000868</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U45" t="n">
-        <v>1363.260308139086</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V45" t="n">
-        <v>1328.559993698803</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W45" t="n">
-        <v>1115.326825435131</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X45" t="n">
-        <v>939.0008435740243</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y45" t="n">
-        <v>779.5988839378543</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>635.5094869829746</v>
+        <v>212.8584580678855</v>
       </c>
       <c r="C46" t="n">
-        <v>464.4161145446911</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D46" t="n">
-        <v>464.4161145446911</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E46" t="n">
-        <v>464.4161145446911</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F46" t="n">
-        <v>464.4161145446911</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G46" t="n">
-        <v>297.1657234702345</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H46" t="n">
-        <v>147.5582682756912</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I46" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J46" t="n">
-        <v>45.29477178522787</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K46" t="n">
-        <v>199.8470995074659</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L46" t="n">
-        <v>459.7441997875267</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M46" t="n">
-        <v>749.0082562280199</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N46" t="n">
-        <v>1029.84703862227</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O46" t="n">
-        <v>1289.407648948744</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P46" t="n">
-        <v>1495.083089198357</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q46" t="n">
-        <v>1560.611119000868</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R46" t="n">
-        <v>1475.338400676267</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S46" t="n">
-        <v>1288.946632556178</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T46" t="n">
-        <v>1049.39789353288</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U46" t="n">
-        <v>766.5997460790038</v>
+        <v>1416.593134765086</v>
       </c>
       <c r="V46" t="n">
-        <v>635.5094869829746</v>
+        <v>1142.707389704608</v>
       </c>
       <c r="W46" t="n">
-        <v>635.5094869829746</v>
+        <v>863.6377252134819</v>
       </c>
       <c r="X46" t="n">
-        <v>635.5094869829746</v>
+        <v>625.2938630731652</v>
       </c>
       <c r="Y46" t="n">
-        <v>635.5094869829746</v>
+        <v>400.5581644619299</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>479.289169423434</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>485.6381778130617</v>
       </c>
       <c r="M2" t="n">
-        <v>426.7129467531477</v>
+        <v>235.7076676518025</v>
       </c>
       <c r="N2" t="n">
-        <v>483.0650705068362</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>483.342555376</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>483.8021430311011</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
         <v>128.2784515920617</v>
@@ -8058,19 +8060,19 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>205.5962513072849</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>447.7170634886343</v>
+        <v>207.334752261087</v>
       </c>
       <c r="N3" t="n">
         <v>443.3461731439669</v>
       </c>
       <c r="O3" t="n">
-        <v>57.751479</v>
+        <v>447.9042587502169</v>
       </c>
       <c r="P3" t="n">
         <v>444.4124147530206</v>
@@ -8216,19 +8218,19 @@
         <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>479.289169423434</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
         <v>485.6381778130617</v>
       </c>
       <c r="M5" t="n">
-        <v>169.9599452705675</v>
+        <v>483.4430042072623</v>
       </c>
       <c r="N5" t="n">
         <v>483.0650705068362</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>169.8594964393052</v>
       </c>
       <c r="P5" t="n">
         <v>93.64936328088416</v>
@@ -8298,25 +8300,25 @@
         <v>445.9785625348323</v>
       </c>
       <c r="L6" t="n">
-        <v>205.8849923335186</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M6" t="n">
-        <v>57.56428373841742</v>
+        <v>273.9673852220582</v>
       </c>
       <c r="N6" t="n">
-        <v>443.3461731439669</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>447.9042587502169</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8450,19 +8452,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>95.48539806284482</v>
+        <v>428.908120358947</v>
       </c>
       <c r="M8" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N8" t="n">
-        <v>235.3297339513765</v>
+        <v>483.0650705068362</v>
       </c>
       <c r="O8" t="n">
         <v>483.342555376</v>
@@ -8471,7 +8473,7 @@
         <v>483.8021430311011</v>
       </c>
       <c r="Q8" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
         <v>128.2784515920617</v>
@@ -8535,16 +8537,16 @@
         <v>445.9785625348323</v>
       </c>
       <c r="L9" t="n">
-        <v>446.2673035610659</v>
+        <v>400.6454545179966</v>
       </c>
       <c r="M9" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>397.7243241008975</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>57.751479</v>
+        <v>447.9042587502169</v>
       </c>
       <c r="P9" t="n">
         <v>444.4124147530206</v>
@@ -8687,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>463.5254207466576</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L11" t="n">
-        <v>485.6381778130617</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M11" t="n">
         <v>483.4430042072623</v>
@@ -8705,13 +8707,13 @@
         <v>93.18977562578313</v>
       </c>
       <c r="P11" t="n">
-        <v>93.64936328088416</v>
+        <v>236.0668064756412</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8772,22 +8774,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M12" t="n">
         <v>447.7170634886343</v>
       </c>
       <c r="N12" t="n">
-        <v>443.3461731439669</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>447.9042587502169</v>
+        <v>439.0569423018259</v>
       </c>
       <c r="P12" t="n">
-        <v>398.7905657099514</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
         <v>88.85829947169823</v>
@@ -8927,25 +8929,25 @@
         <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>479.289169423434</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L14" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M14" t="n">
-        <v>483.4430042072623</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N14" t="n">
-        <v>169.5820115701414</v>
+        <v>235.3297339513765</v>
       </c>
       <c r="O14" t="n">
         <v>483.342555376</v>
       </c>
       <c r="P14" t="n">
-        <v>93.64936328088416</v>
+        <v>483.8021430311011</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
         <v>128.2784515920617</v>
@@ -9006,19 +9008,19 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>437.1312460864413</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M15" t="n">
-        <v>438.8697470402433</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
         <v>443.3461731439669</v>
       </c>
       <c r="O15" t="n">
-        <v>447.9042587502169</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
         <v>54.25963500280375</v>
@@ -9161,25 +9163,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
-        <v>422.5591119693194</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L17" t="n">
-        <v>485.6381778130617</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M17" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N17" t="n">
-        <v>483.0650705068362</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O17" t="n">
-        <v>483.342555376</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P17" t="n">
-        <v>93.64936328088416</v>
+        <v>296.9001458002832</v>
       </c>
       <c r="Q17" t="n">
         <v>90.03380439915205</v>
@@ -9240,31 +9242,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>72.38002271790189</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
-        <v>446.2673035610659</v>
+        <v>173.8482690683347</v>
       </c>
       <c r="M18" t="n">
-        <v>447.7170634886343</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N18" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O18" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P18" t="n">
-        <v>444.4124147530206</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,28 +9403,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K20" t="n">
-        <v>611.1999600432426</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L20" t="n">
-        <v>617.5489684328704</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M20" t="n">
-        <v>93.29022445704545</v>
+        <v>228.8889510900428</v>
       </c>
       <c r="N20" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O20" t="n">
-        <v>594.1598684051008</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P20" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q20" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,22 +9485,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>173.8482690683349</v>
+        <v>527.2265162238735</v>
       </c>
       <c r="M21" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N21" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O21" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P21" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R21" t="n">
         <v>88.85829947169823</v>
@@ -9638,28 +9640,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K23" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L23" t="n">
-        <v>617.5489684328704</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M23" t="n">
-        <v>553.2940084590249</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N23" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O23" t="n">
-        <v>615.2533459958087</v>
+        <v>594.1598684051006</v>
       </c>
       <c r="P23" t="n">
-        <v>615.7129336509097</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q23" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R23" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,28 +9716,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L24" t="n">
-        <v>557.0846165901669</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N24" t="n">
-        <v>575.2569637637755</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O24" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P24" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>362.9022490996783</v>
       </c>
       <c r="R24" t="n">
         <v>59.00019910540541</v>
@@ -9872,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K26" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L26" t="n">
-        <v>596.4554908421626</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M26" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N26" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O26" t="n">
-        <v>615.2533459958087</v>
+        <v>535.0653799235641</v>
       </c>
       <c r="P26" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q26" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R26" t="n">
         <v>87.31214281472352</v>
@@ -9957,25 +9959,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>562.8045877599699</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M27" t="n">
-        <v>57.56428373841742</v>
+        <v>72.04887768380517</v>
       </c>
       <c r="N27" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P27" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q27" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,22 +10111,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K29" t="n">
-        <v>292.3871721926164</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L29" t="n">
-        <v>95.48539806284482</v>
+        <v>555.489182064824</v>
       </c>
       <c r="M29" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N29" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O29" t="n">
-        <v>615.2533459958087</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P29" t="n">
         <v>93.64936328088416</v>
@@ -10188,7 +10190,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
         <v>516.2361426485535</v>
@@ -10197,22 +10199,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>575.2569637637755</v>
+        <v>559.8834573428703</v>
       </c>
       <c r="O30" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P30" t="n">
-        <v>263.5046911326701</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q30" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,19 +10348,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
-        <v>549.1401736751965</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L32" t="n">
-        <v>617.5489684328704</v>
+        <v>537.3610023606258</v>
       </c>
       <c r="M32" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N32" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O32" t="n">
         <v>93.18977562578313</v>
@@ -10367,10 +10369,10 @@
         <v>93.64936328088416</v>
       </c>
       <c r="Q32" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R32" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,28 +10427,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>62.07087134908675</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>579.8150493700256</v>
+        <v>564.4415429491204</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
         <v>88.85829947169823</v>
@@ -10586,28 +10588,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
-        <v>292.3871721926164</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L35" t="n">
-        <v>617.5489684328704</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M35" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N35" t="n">
-        <v>614.9758611266449</v>
+        <v>534.7878950544003</v>
       </c>
       <c r="O35" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P35" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q35" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,31 +10664,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
-        <v>578.1780941808746</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M36" t="n">
-        <v>579.627854108443</v>
+        <v>333.9158139669639</v>
       </c>
       <c r="N36" t="n">
-        <v>575.2569637637755</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O36" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P36" t="n">
-        <v>94.8193679181835</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,25 +10825,25 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K38" t="n">
-        <v>590.1064824525349</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L38" t="n">
-        <v>617.5489684328704</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M38" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N38" t="n">
-        <v>614.9758611266449</v>
+        <v>269.477326166955</v>
       </c>
       <c r="O38" t="n">
-        <v>615.2533459958087</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P38" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q38" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
         <v>87.31214281472352</v>
@@ -10899,31 +10901,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>246.129700984478</v>
+        <v>198.9610844237786</v>
       </c>
       <c r="K39" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M39" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>502.7883324430334</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P39" t="n">
-        <v>576.3232053728293</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q39" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,13 +11062,13 @@
         <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>490.0456851936601</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L41" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M41" t="n">
-        <v>615.3537948270711</v>
+        <v>296.5410069764445</v>
       </c>
       <c r="N41" t="n">
         <v>92.91229075661933</v>
@@ -11075,10 +11077,10 @@
         <v>93.18977562578313</v>
       </c>
       <c r="P41" t="n">
-        <v>615.7129336509097</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q41" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R41" t="n">
         <v>128.2784515920617</v>
@@ -11136,31 +11138,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L42" t="n">
-        <v>578.1780941808746</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M42" t="n">
-        <v>579.627854108443</v>
+        <v>558.5343765177348</v>
       </c>
       <c r="N42" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>334.1030092285466</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q42" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R42" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>422.5591119693194</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L44" t="n">
-        <v>485.6381778130617</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M44" t="n">
-        <v>483.4430042072623</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N44" t="n">
-        <v>483.0650705068362</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O44" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P44" t="n">
-        <v>93.64936328088416</v>
+        <v>494.5586588013268</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
         <v>128.2784515920617</v>
@@ -11376,28 +11378,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>445.9785625348323</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
-        <v>57.56428373841742</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N45" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>244.2964801173478</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P45" t="n">
-        <v>444.4124147530206</v>
+        <v>68.74422894819149</v>
       </c>
       <c r="Q45" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11458,7 +11460,7 @@
         <v>208.3638319047618</v>
       </c>
       <c r="L46" t="n">
-        <v>317.1506174091145</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M46" t="n">
         <v>348.4508580952379</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>15.96618811762767</v>
       </c>
       <c r="C2" t="n">
         <v>406.0233447798626</v>
@@ -22598,22 +22600,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>212.4469480314691</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>87.01413699837087</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
         <v>6.484184102520089</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.774526571173908</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -22641,10 +22643,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22680,10 +22682,10 @@
         <v>157.7484451748619</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V3" t="n">
-        <v>156.6799949750536</v>
+        <v>51.88353852249338</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -22702,10 +22704,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
         <v>157.8996982303191</v>
@@ -22717,13 +22719,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>110.2688270688019</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22753,13 +22755,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22768,10 +22770,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>136.5105265353622</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -22787,7 +22789,7 @@
         <v>15.87056502964566</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>56.77272220387903</v>
       </c>
       <c r="E5" t="n">
         <v>410.1968133282722</v>
@@ -22832,10 +22834,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>10.2661152624589</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
         <v>254.489886823085</v>
@@ -22847,10 +22849,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>6.484184102520089</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>6.774526571173908</v>
       </c>
     </row>
     <row r="6">
@@ -22869,16 +22871,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>100.6379475717904</v>
       </c>
       <c r="F6" t="n">
         <v>107.8702810193205</v>
       </c>
       <c r="G6" t="n">
-        <v>102.0351779227401</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I6" t="n">
         <v>20.54110546596223</v>
@@ -22926,7 +22928,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -22945,22 +22947,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>174.5973550380957</v>
       </c>
       <c r="X7" t="n">
-        <v>208.6070786176239</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -23018,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.96618811762767</v>
+        <v>20.62695776434083</v>
       </c>
       <c r="C8" t="n">
-        <v>15.87056502964566</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
         <v>400.41929060787</v>
@@ -23036,10 +23038,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>49.64108905066576</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23072,19 +23074,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>6.484184102520089</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -23103,22 +23105,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F9" t="n">
-        <v>11.75975384385707</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23148,13 +23150,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>127.9729534280616</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -23163,7 +23165,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -23176,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
         <v>169.3824387139007</v>
@@ -23224,13 +23226,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>194.7158398879882</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -23242,10 +23244,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>55.35263051300456</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -23255,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>15.96618811762767</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>15.87056502964566</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>10.26651085765315</v>
       </c>
       <c r="E11" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>26.66732817563241</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
         <v>404.6410012660961</v>
@@ -23306,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0.03603336842513727</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
         <v>254.489886823085</v>
@@ -23318,13 +23320,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.774526571173908</v>
+        <v>53.28073791739968</v>
       </c>
     </row>
     <row r="12">
@@ -23340,22 +23342,22 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>91.81987115582335</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23385,16 +23387,16 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>209.6319836973552</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>184.5278504388888</v>
@@ -23479,10 +23481,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>208.6070786176239</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>57.06664624006473</v>
       </c>
     </row>
     <row r="14">
@@ -23492,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>15.96618811762767</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>15.87056502964566</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
@@ -23510,10 +23512,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>250.0872933463841</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,19 +23551,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>6.484184102520089</v>
+        <v>52.99039544874586</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>6.774526571173908</v>
       </c>
     </row>
     <row r="15">
@@ -23580,19 +23582,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>100.6379475717904</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23625,13 +23627,13 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T15" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>51.88353852249338</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.10615505383055</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
         <v>237.1532516330649</v>
@@ -23716,10 +23718,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>208.6070786176239</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23729,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>17.77593127593013</v>
       </c>
       <c r="D17" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>14.48822151587922</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>307.7994123985592</v>
@@ -23792,13 +23794,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>36.27612945219198</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>6.484184102520089</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>6.774526571173908</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -23814,22 +23816,22 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>88.26016951102955</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>126.9450269688243</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
@@ -23941,7 +23943,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>8.893130557884234</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>406.0233447798626</v>
@@ -23975,7 +23977,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24023,16 +24025,16 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>100.7022474912155</v>
+        <v>174.0418857177117</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
         <v>396.9273063213908</v>
@@ -24130,10 +24132,10 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>95.07885355495169</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24181,13 +24183,13 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>89.98564667178434</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
         <v>235.9604235189134</v>
@@ -24203,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>13.55422061770423</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
         <v>85.48824505609757</v>
@@ -24263,16 +24265,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
-        <v>207.6246004336215</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -24361,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>4.288116533798501</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
         <v>184.5278504388888</v>
@@ -24418,19 +24420,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>60.89821946808541</v>
       </c>
       <c r="V25" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24455,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>404.6410012660961</v>
+        <v>2.689873088829984</v>
       </c>
       <c r="H26" t="n">
         <v>307.7994123985592</v>
@@ -24503,13 +24505,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>374.8988760003073</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>144.2718011381669</v>
       </c>
       <c r="X28" t="n">
-        <v>208.6070786176243</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -24683,13 +24685,13 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>379.2632645469324</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24698,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24734,16 +24736,16 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>63.80483742154973</v>
       </c>
       <c r="Y29" t="n">
         <v>396.9273063213908</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
         <v>169.3824387139007</v>
@@ -24844,16 +24846,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>124.0672881289817</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
         <v>115.1825854367171</v>
@@ -24889,22 +24891,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>6.694084528254535</v>
       </c>
     </row>
     <row r="32">
@@ -24914,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>416.8201079258493</v>
@@ -24965,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>369.8017901142956</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>102.2044137447347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25093,7 +25095,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>194.7158398879882</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>85.21103766995233</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -25154,19 +25156,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>391.9989518721387</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>370.7254074518976</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>307.7994123985592</v>
@@ -25217,10 +25219,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -25312,13 +25314,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>83.23438236414643</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>19.10615505383041</v>
       </c>
       <c r="T37" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
@@ -25378,7 +25380,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25388,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>396.9216774635597</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>232.0606732285648</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
         <v>307.7994123985592</v>
@@ -25442,7 +25444,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
         <v>254.489886823085</v>
@@ -25454,10 +25456,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>115.4526577326942</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>13.50097262859883</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25634,19 +25636,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>405.3168566701954</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>217.0674644203984</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25786,10 +25788,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>10.55906086092725</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>70.4366973567914</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,7 +25845,7 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
@@ -25852,7 +25854,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25862,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>20.04403357805535</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>14.48822151587922</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
         <v>85.48824505609757</v>
@@ -25916,10 +25918,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>48.47437028004609</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -25928,10 +25930,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>384.7425708038065</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25959,7 +25961,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25992,16 +25994,16 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>177.221100441016</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26035,13 +26037,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>126.9450269688244</v>
       </c>
       <c r="V46" t="n">
-        <v>141.3675311048044</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>477095.7930468796</v>
+        <v>477095.7930468798</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>477095.7930468796</v>
+        <v>477095.7930468795</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>477095.7930468795</v>
+        <v>477095.7930468796</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>477095.7930468796</v>
+        <v>477095.7930468794</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>477095.7930468796</v>
+        <v>570777.0425583152</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>570777.0425583153</v>
+        <v>570777.0425583152</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>570777.0425583154</v>
+        <v>570777.0425583152</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>570777.0425583152</v>
+        <v>570777.0425583153</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>570777.0425583154</v>
+        <v>570777.0425583152</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>570777.0425583152</v>
+        <v>570777.0425583153</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>570777.0425583154</v>
+        <v>570777.0425583153</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>477095.7930468796</v>
+        <v>570777.0425583152</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>79515.96550781334</v>
+      </c>
+      <c r="C2" t="n">
+        <v>79515.96550781334</v>
+      </c>
+      <c r="D2" t="n">
+        <v>79515.96550781337</v>
+      </c>
+      <c r="E2" t="n">
         <v>79515.96550781332</v>
       </c>
-      <c r="C2" t="n">
+      <c r="F2" t="n">
         <v>79515.96550781332</v>
       </c>
-      <c r="D2" t="n">
-        <v>79515.96550781334</v>
-      </c>
-      <c r="E2" t="n">
-        <v>79515.96550781334</v>
-      </c>
-      <c r="F2" t="n">
-        <v>79515.96550781334</v>
-      </c>
       <c r="G2" t="n">
-        <v>79515.96550781334</v>
+        <v>95129.50709305257</v>
       </c>
       <c r="H2" t="n">
-        <v>95129.5070930526</v>
+        <v>95129.50709305257</v>
       </c>
       <c r="I2" t="n">
-        <v>95129.5070930526</v>
+        <v>95129.50709305257</v>
       </c>
       <c r="J2" t="n">
+        <v>95129.50709305261</v>
+      </c>
+      <c r="K2" t="n">
+        <v>95129.50709305261</v>
+      </c>
+      <c r="L2" t="n">
         <v>95129.50709305258</v>
       </c>
-      <c r="K2" t="n">
-        <v>95129.5070930526</v>
-      </c>
-      <c r="L2" t="n">
-        <v>95129.50709305264</v>
-      </c>
       <c r="M2" t="n">
-        <v>95129.5070930526</v>
+        <v>95129.50709305258</v>
       </c>
       <c r="N2" t="n">
-        <v>95129.5070930526</v>
+        <v>95129.50709305257</v>
       </c>
       <c r="O2" t="n">
-        <v>95129.50709305261</v>
+        <v>95129.50709305258</v>
       </c>
       <c r="P2" t="n">
-        <v>79515.96550781332</v>
+        <v>95129.50709305255</v>
       </c>
     </row>
     <row r="3">
@@ -26378,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>36154.76904703023</v>
       </c>
       <c r="H3" t="n">
-        <v>35590.71850633996</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>102081.1339049657</v>
+        <v>102081.1339049658</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>31744.46367344755</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26430,16 +26432,16 @@
         <v>338.3215741009759</v>
       </c>
       <c r="G4" t="n">
-        <v>338.3215741009759</v>
+        <v>433.9049324434263</v>
       </c>
       <c r="H4" t="n">
+        <v>433.9049324434262</v>
+      </c>
+      <c r="I4" t="n">
         <v>433.9049324434263</v>
       </c>
-      <c r="I4" t="n">
-        <v>433.9049324434264</v>
-      </c>
       <c r="J4" t="n">
-        <v>433.9049324434264</v>
+        <v>433.9049324434263</v>
       </c>
       <c r="K4" t="n">
         <v>433.9049324434263</v>
@@ -26448,16 +26450,16 @@
         <v>433.9049324434263</v>
       </c>
       <c r="M4" t="n">
-        <v>433.9049324434264</v>
+        <v>433.9049324434262</v>
       </c>
       <c r="N4" t="n">
-        <v>433.9049324434264</v>
+        <v>433.9049324434263</v>
       </c>
       <c r="O4" t="n">
         <v>433.9049324434263</v>
       </c>
       <c r="P4" t="n">
-        <v>338.321574100976</v>
+        <v>433.9049324434263</v>
       </c>
     </row>
     <row r="5">
@@ -26482,7 +26484,7 @@
         <v>23721.28900881319</v>
       </c>
       <c r="G5" t="n">
-        <v>23721.28900881319</v>
+        <v>31741.46507849755</v>
       </c>
       <c r="H5" t="n">
         <v>31741.46507849755</v>
@@ -26509,7 +26511,7 @@
         <v>31741.46507849755</v>
       </c>
       <c r="P5" t="n">
-        <v>23721.28900881319</v>
+        <v>31741.46507849755</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>-108920.4150833328</v>
       </c>
       <c r="C6" t="n">
-        <v>21828.75492489916</v>
+        <v>21828.75492489917</v>
       </c>
       <c r="D6" t="n">
-        <v>21828.75492489917</v>
+        <v>21828.7549248992</v>
       </c>
       <c r="E6" t="n">
-        <v>55456.35492489918</v>
+        <v>55456.35492489916</v>
       </c>
       <c r="F6" t="n">
-        <v>55456.35492489918</v>
+        <v>55456.35492489916</v>
       </c>
       <c r="G6" t="n">
-        <v>55456.35492489918</v>
+        <v>26799.36803508137</v>
       </c>
       <c r="H6" t="n">
-        <v>27363.41857577166</v>
+        <v>62954.1370821116</v>
       </c>
       <c r="I6" t="n">
-        <v>62954.13708211161</v>
+        <v>62954.1370821116</v>
       </c>
       <c r="J6" t="n">
         <v>-39126.99682285413</v>
       </c>
       <c r="K6" t="n">
+        <v>62954.13708211164</v>
+      </c>
+      <c r="L6" t="n">
         <v>62954.13708211161</v>
-      </c>
-      <c r="L6" t="n">
-        <v>62954.13708211166</v>
       </c>
       <c r="M6" t="n">
         <v>62954.13708211161</v>
       </c>
       <c r="N6" t="n">
-        <v>62954.13708211161</v>
+        <v>62954.1370821116</v>
       </c>
       <c r="O6" t="n">
-        <v>62954.13708211163</v>
+        <v>31209.67340866406</v>
       </c>
       <c r="P6" t="n">
-        <v>55456.35492489916</v>
+        <v>62954.13708211159</v>
       </c>
     </row>
   </sheetData>
@@ -26802,34 +26804,34 @@
         <v>390.1527797502169</v>
       </c>
       <c r="G4" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="H4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="I4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="K4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P4" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700254</v>
       </c>
     </row>
   </sheetData>
@@ -27024,16 +27026,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>131.9107906198086</v>
       </c>
       <c r="H4" t="n">
-        <v>131.9107906198087</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>390.1527797502168</v>
+        <v>390.152779750217</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>131.9107906198086</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>131.9107906198086</v>
       </c>
       <c r="P4" t="n">
-        <v>131.9107906198087</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M2" t="n">
-        <v>333.4227222961022</v>
+        <v>142.4174431947571</v>
       </c>
       <c r="N2" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
         <v>40.9663087773382</v>
@@ -34778,19 +34780,19 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>149.7704685226695</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>390.1527797502169</v>
       </c>
       <c r="N3" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="P3" t="n">
         <v>390.1527797502169</v>
@@ -34860,7 +34862,7 @@
         <v>156.1134623456949</v>
       </c>
       <c r="L4" t="n">
-        <v>262.522323515213</v>
+        <v>262.5223235152127</v>
       </c>
       <c r="M4" t="n">
         <v>292.1859155964578</v>
@@ -34936,19 +34938,19 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="M5" t="n">
-        <v>76.66972081352203</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="N5" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>76.66972081352203</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35018,25 +35020,25 @@
         <v>390.1527797502169</v>
       </c>
       <c r="L6" t="n">
-        <v>149.7704685226696</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>216.4031014836408</v>
       </c>
       <c r="N6" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>333.4227222961022</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>142.4174431947572</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="O8" t="n">
         <v>390.1527797502169</v>
@@ -35191,7 +35193,7 @@
         <v>390.1527797502169</v>
       </c>
       <c r="Q8" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>40.9663087773382</v>
@@ -35255,16 +35257,16 @@
         <v>390.1527797502169</v>
       </c>
       <c r="L9" t="n">
+        <v>344.5309307071475</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>344.5309307071475</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>390.1527797502169</v>
@@ -35407,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>374.3890310734405</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>390.1527797502169</v>
@@ -35425,13 +35427,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>142.4174431947571</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35494,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M12" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="N12" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>390.1527797502169</v>
+        <v>381.3054633018259</v>
       </c>
       <c r="P12" t="n">
-        <v>344.5309307071477</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
         <v>29.85810036629282</v>
@@ -35647,25 +35649,25 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>76.66972081352203</v>
+        <v>142.4174431947572</v>
       </c>
       <c r="O14" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
         <v>40.9663087773382</v>
@@ -35726,19 +35728,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>381.3054633018259</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M15" t="n">
-        <v>381.3054633018259</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="O15" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35881,25 +35883,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
-        <v>333.4227222961022</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N17" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O17" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>203.2507825193991</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>21.01078391790188</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>390.1527797502169</v>
+        <v>117.7337452574857</v>
       </c>
       <c r="M18" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P18" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,28 +36123,28 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L20" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>135.5987266329973</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O20" t="n">
-        <v>500.9700927793177</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,22 +36205,22 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>117.7337452574859</v>
+        <v>471.1119924130245</v>
       </c>
       <c r="M21" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O21" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P21" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>29.85810036629282</v>
@@ -36358,28 +36360,28 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L23" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M23" t="n">
-        <v>460.0037840019794</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="P23" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.9700927793178</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N24" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O24" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>306.2096305948396</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>500.9700927793178</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N26" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O26" t="n">
-        <v>522.0635703700256</v>
+        <v>441.875604297781</v>
       </c>
       <c r="P26" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36677,25 +36679,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>506.6900639491208</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>14.48459394538775</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P27" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,22 +36831,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>203.2507825193993</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>460.0037840019792</v>
       </c>
       <c r="M29" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N29" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O29" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
         <v>460.4103598639381</v>
@@ -36917,22 +36919,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>522.0635703700256</v>
+        <v>506.6900639491204</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P30" t="n">
-        <v>209.2450561298663</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K32" t="n">
-        <v>460.0037840019794</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>522.0635703700256</v>
+        <v>441.8756042977809</v>
       </c>
       <c r="M32" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N32" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -37087,10 +37089,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R32" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>10.70163254908674</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>522.0635703700256</v>
+        <v>506.6900639491204</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
         <v>29.85810036629282</v>
@@ -37306,28 +37308,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K35" t="n">
-        <v>203.2507825193993</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M35" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>522.0635703700256</v>
+        <v>441.875604297781</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M36" t="n">
-        <v>522.0635703700256</v>
+        <v>276.3515302285465</v>
       </c>
       <c r="N36" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P36" t="n">
-        <v>40.55973291537975</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37543,25 +37545,25 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>500.9700927793178</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N38" t="n">
-        <v>522.0635703700256</v>
+        <v>176.5650354103356</v>
       </c>
       <c r="O38" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>194.760462184478</v>
+        <v>147.5918456237786</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M39" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>445.0368534430334</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P39" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q39" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37780,13 +37782,13 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>400.909295520443</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M41" t="n">
-        <v>522.0635703700256</v>
+        <v>203.2507825193991</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -37795,10 +37797,10 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q41" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>40.9663087773382</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M42" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="N42" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>276.3515302285466</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>333.4227222961022</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L44" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>400.9092955204427</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
         <v>40.9663087773382</v>
@@ -38096,28 +38098,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>390.1527797502169</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>186.5450011173479</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P45" t="n">
-        <v>390.1527797502169</v>
+        <v>14.48459394538775</v>
       </c>
       <c r="Q45" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38178,7 +38180,7 @@
         <v>156.1134623456949</v>
       </c>
       <c r="L46" t="n">
-        <v>262.522323515213</v>
+        <v>262.5223235152127</v>
       </c>
       <c r="M46" t="n">
         <v>292.1859155964578</v>
